--- a/Tables/Intermediate- Excluded.xlsx
+++ b/Tables/Intermediate- Excluded.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,7 +688,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MCOI-1</t>
+          <t>MCOBT-4.4 OB</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -698,73 +698,61 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>35.8645331</t>
+          <t>35.86057</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>-106.2917572</t>
+          <t>-106.27102</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>7106.2</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>Tpf</t>
-        </is>
-      </c>
+          <t>6836.180</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr"/>
       <c r="G3" s="1" t="inlineStr"/>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>825.6</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>0.81 in</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>815</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>825.48</t>
-        </is>
-      </c>
+      <c r="H3" s="1" t="inlineStr"/>
+      <c r="I3" s="1" t="inlineStr"/>
+      <c r="J3" s="1" t="inlineStr"/>
+      <c r="K3" s="1" t="inlineStr"/>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>Brass cap in I-1 pad, Brass cap in I-1 pad</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.intellusnm.com/documents/document-library.cfc?method=retrieveLanlFile&amp;nodeId=12224</t>
-        </is>
-      </c>
-      <c r="N3" s="1" t="inlineStr"/>
-      <c r="O3" s="1" t="inlineStr"/>
+          <t>Brass Monument MCOBT-4.4 plugged and abandoned 7/29/09, Brass Monument  MCOBT-4.4 plugged and abandoned 7/29/09, Brass Monument  MCOBT-4.4 plugged and abandoned 7/29/09</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr"/>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>Chromium</t>
+        </is>
+      </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>Upper Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr"/>
       <c r="R3" s="1" t="inlineStr"/>
       <c r="S3" s="1" t="inlineStr">
         <is>
-          <t>7110</t>
-        </is>
-      </c>
-      <c r="T3" s="1" t="inlineStr"/>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t>Aquifer updated from MW</t>
+        </is>
+      </c>
       <c r="U3" s="1" t="inlineStr">
         <is>
-          <t>Monitoring Wells</t>
+          <t>Well Info</t>
         </is>
       </c>
       <c r="V3" s="1" t="inlineStr">
@@ -824,7 +812,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>MCO-7.2</t>
+          <t>R-23i OB</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -834,85 +822,81 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>35.8606409</t>
+          <t>35.82385</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>-106.2684259</t>
+          <t>-106.22476</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>6818.34</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>Qct</t>
-        </is>
-      </c>
+          <t>6527.880</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr"/>
       <c r="G4" s="1" t="inlineStr"/>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>95.35</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>2 in</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>92.5</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr"/>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.intellusnm.com/documents/document-library.cfc?method=retrieveLanlFile&amp;nodeId=12199</t>
-        </is>
-      </c>
-      <c r="N4" s="1" t="inlineStr"/>
-      <c r="O4" s="1" t="inlineStr"/>
+      <c r="H4" s="1" t="inlineStr"/>
+      <c r="I4" s="1" t="inlineStr"/>
+      <c r="J4" s="1" t="inlineStr"/>
+      <c r="K4" s="1" t="inlineStr"/>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr"/>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>TA-54</t>
+        </is>
+      </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr"/>
       <c r="R4" s="1" t="inlineStr"/>
-      <c r="S4" s="1" t="inlineStr"/>
-      <c r="T4" s="1" t="inlineStr"/>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="inlineStr">
+        <is>
+          <t>Aquifer updated from MW</t>
+        </is>
+      </c>
       <c r="U4" s="1" t="inlineStr">
         <is>
-          <t>Monitoring Wells</t>
+          <t>Well Info</t>
         </is>
       </c>
       <c r="V4" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="W4" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2005-10-20</t>
         </is>
       </c>
       <c r="X4" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="Y4" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2005-10-31</t>
         </is>
       </c>
       <c r="Z4" s="1" t="inlineStr">
@@ -937,7 +921,7 @@
       </c>
       <c r="AD4" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE4" s="1" t="inlineStr"/>
@@ -952,7 +936,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MCOBT-4.4 OB</t>
+          <t>R-41 S1</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -962,28 +946,40 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>35.86057</t>
+          <t>35.83099</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>-106.27102</t>
+          <t>-106.23381</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>6836.180</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr"/>
+          <t>6660.530</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Tsf</t>
+        </is>
+      </c>
       <c r="G5" s="1" t="inlineStr"/>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="inlineStr"/>
-      <c r="J5" s="1" t="inlineStr"/>
-      <c r="K5" s="1" t="inlineStr"/>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>937.700</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>Brass Monument MCOBT-4.4 plugged and abandoned 7/29/09, Brass Monument  MCOBT-4.4 plugged and abandoned 7/29/09, Brass Monument  MCOBT-4.4 plugged and abandoned 7/29/09</t>
+          <t>Brass cap location, Brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr"/>
@@ -994,12 +990,12 @@
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>Chromium</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr"/>
@@ -1009,11 +1005,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T5" s="1" t="inlineStr">
-        <is>
-          <t>Aquifer updated from MW</t>
-        </is>
-      </c>
+      <c r="T5" s="1" t="inlineStr"/>
       <c r="U5" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -1076,7 +1068,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>R-23i OB</t>
+          <t>LAOI-3.2 OB</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -1086,17 +1078,17 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>35.82385</t>
+          <t>35.87308</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>-106.22476</t>
+          <t>-106.25937</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>6527.880</t>
+          <t>6622.600</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr"/>
@@ -1107,7 +1099,7 @@
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
+          <t>added for P Longmire.  Location data taken from Brass Cap survey data., added for P Longmire.  Location data taken from Brass Cap survey data., added for P Longmire.  Location data taken from Brass Cap survey data.</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr"/>
@@ -1118,12 +1110,12 @@
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Los Alamos</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr"/>
@@ -1145,22 +1137,22 @@
       </c>
       <c r="V6" s="1" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W6" s="1" t="inlineStr">
         <is>
-          <t>2005-10-20</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
         <is>
-          <t>2005-10-31</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Z6" s="1" t="inlineStr">
@@ -1185,7 +1177,7 @@
       </c>
       <c r="AD6" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE6" s="1" t="inlineStr"/>
@@ -1200,7 +1192,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>R-41 S1</t>
+          <t>LAOI-3.2a OB</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -1210,40 +1202,28 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>35.83099</t>
+          <t>35.87318</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>-106.23381</t>
+          <t>-106.25944</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>6660.530</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>Tsf</t>
-        </is>
-      </c>
+          <t>6624.430</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr"/>
       <c r="G7" s="1" t="inlineStr"/>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="inlineStr"/>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>937.700</t>
-        </is>
-      </c>
+      <c r="J7" s="1" t="inlineStr"/>
+      <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass cap location, Brass cap location</t>
+          <t>Brass Cap Location, Brass Cap Location, Brass Cap Location</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr"/>
@@ -1254,12 +1234,12 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Los Alamos</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr"/>
@@ -1269,7 +1249,11 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T7" s="1" t="inlineStr"/>
+      <c r="T7" s="1" t="inlineStr">
+        <is>
+          <t>Aquifer updated from MW</t>
+        </is>
+      </c>
       <c r="U7" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -1277,22 +1261,22 @@
       </c>
       <c r="V7" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W7" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2005-07-30</t>
         </is>
       </c>
       <c r="X7" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y7" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2005-07-30</t>
         </is>
       </c>
       <c r="Z7" s="1" t="inlineStr">
@@ -1317,7 +1301,7 @@
       </c>
       <c r="AD7" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE7" s="1" t="inlineStr"/>
@@ -1332,7 +1316,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>BCO-1</t>
+          <t>R-5 S1</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1342,53 +1326,53 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>35.8891488</t>
+          <t>35.87307</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>-106.2492164</t>
+          <t>-106.22877</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>6641.97</t>
+          <t>6472.600</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tp</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr"/>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
+      <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="inlineStr"/>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>326.4</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>331.500</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>Intermediate monitoring well, Intermediate monitoring well</t>
-        </is>
-      </c>
-      <c r="M8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.intellusnm.com/documents/document-library.cfc?method=retrieveLanlFile&amp;nodeId=12437</t>
-        </is>
-      </c>
-      <c r="N8" s="1" t="inlineStr"/>
-      <c r="O8" s="1" t="inlineStr"/>
+          <t>Location info taken from Brass cap monument survey data from R-5 WCR., Location info taken from Brass cap monument survey data from R-5 WCR., Location info taken from Brass cap monument survey data from R-5 WCR.</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="inlineStr"/>
+      <c r="N8" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O8" s="1" t="inlineStr">
+        <is>
+          <t>TA-21</t>
+        </is>
+      </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
           <t>Los Alamos</t>
@@ -1396,11 +1380,15 @@
       </c>
       <c r="Q8" s="1" t="inlineStr"/>
       <c r="R8" s="1" t="inlineStr"/>
-      <c r="S8" s="1" t="inlineStr"/>
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
       <c r="T8" s="1" t="inlineStr"/>
       <c r="U8" s="1" t="inlineStr">
         <is>
-          <t>Monitoring Wells</t>
+          <t>Well Info</t>
         </is>
       </c>
       <c r="V8" s="1" t="inlineStr">
@@ -1460,7 +1448,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>LAOI-3.2 OB</t>
+          <t>R-7 OB</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -1470,17 +1458,17 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>35.87308</t>
+          <t>35.87469</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>-106.25937</t>
+          <t>-106.27954</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>6622.600</t>
+          <t>6779.200</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr"/>
@@ -1491,7 +1479,7 @@
       <c r="K9" s="1" t="inlineStr"/>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>added for P Longmire.  Location data taken from Brass Cap survey data., added for P Longmire.  Location data taken from Brass Cap survey data., added for P Longmire.  Location data taken from Brass Cap survey data.</t>
+          <t>Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR.</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr"/>
@@ -1529,22 +1517,22 @@
       </c>
       <c r="V9" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="W9" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2001-01-06</t>
         </is>
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2001-01-10</t>
         </is>
       </c>
       <c r="Z9" s="1" t="inlineStr">
@@ -1569,7 +1557,7 @@
       </c>
       <c r="AD9" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE9" s="1" t="inlineStr"/>
@@ -1584,7 +1572,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>LAOI-3.2a OB</t>
+          <t>R-7 S2</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -1594,28 +1582,40 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>35.87318</t>
+          <t>35.87469</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>-106.25944</t>
+          <t>-106.27954</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>6624.430</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr"/>
+          <t>6779.200</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>Tp</t>
+        </is>
+      </c>
       <c r="G10" s="1" t="inlineStr"/>
       <c r="H10" s="1" t="inlineStr"/>
       <c r="I10" s="1" t="inlineStr"/>
-      <c r="J10" s="1" t="inlineStr"/>
-      <c r="K10" s="1" t="inlineStr"/>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>730.4</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>746.400</t>
+        </is>
+      </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap Location, Brass Cap Location, Brass Cap Location</t>
+          <t>Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR.</t>
         </is>
       </c>
       <c r="M10" s="1" t="inlineStr"/>
@@ -1641,11 +1641,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T10" s="1" t="inlineStr">
-        <is>
-          <t>Aquifer updated from MW</t>
-        </is>
-      </c>
+      <c r="T10" s="1" t="inlineStr"/>
       <c r="U10" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -1653,22 +1649,22 @@
       </c>
       <c r="V10" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W10" s="1" t="inlineStr">
         <is>
-          <t>2005-07-30</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X10" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Y10" s="1" t="inlineStr">
         <is>
-          <t>2005-07-30</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Z10" s="1" t="inlineStr">
@@ -1693,7 +1689,7 @@
       </c>
       <c r="AD10" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE10" s="1" t="inlineStr"/>
@@ -1708,7 +1704,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>R-4 PZ-E</t>
+          <t>03-MW-1</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -1718,65 +1714,85 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>35.8825612</t>
+          <t>35.87374</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>-106.2537778</t>
+          <t>-106.33013</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>6577.34</t>
+          <t>7457.7</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr"/>
+          <t>Qbt3</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>1994-09-22 00:00:00</t>
+        </is>
+      </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr"/>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="inlineStr">
+        <is>
+          <t>2 in</t>
+        </is>
+      </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>28.000</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>R-4 Piezometer East, R-4 Piezometer East</t>
-        </is>
-      </c>
-      <c r="M11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.intellusnm.com/documents/document-library.cfc?method=retrieveLanlFile&amp;nodeId=12295</t>
-        </is>
-      </c>
+          <t>ER ID 03-02664 plugged and abandoned 6/7/05, ER ID 03-02664 Well plugged and abandoned 6/7/05, ER ID 03-02664 Well plugged and abandoned 6/7/05</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="inlineStr"/>
       <c r="N11" s="1" t="inlineStr"/>
-      <c r="O11" s="1" t="inlineStr"/>
+      <c r="O11" s="1" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>Los Alamos</t>
-        </is>
-      </c>
-      <c r="Q11" s="1" t="inlineStr"/>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q11" s="1" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
       <c r="R11" s="1" t="inlineStr"/>
-      <c r="S11" s="1" t="inlineStr"/>
-      <c r="T11" s="1" t="inlineStr"/>
+      <c r="S11" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T11" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW, Well Diameter [in] updated from MW</t>
+        </is>
+      </c>
       <c r="U11" s="1" t="inlineStr">
         <is>
-          <t>Monitoring Wells</t>
+          <t>Well Info</t>
         </is>
       </c>
       <c r="V11" s="1" t="inlineStr">
@@ -1836,7 +1852,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>R-4 PZ-W</t>
+          <t>R-19 OB</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -1846,81 +1862,81 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>35.8825612</t>
+          <t>35.83787</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>-106.2537784</t>
+          <t>-106.28542</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>6577.35</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>Tpf</t>
-        </is>
-      </c>
+          <t>7066.300</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr"/>
       <c r="G12" s="1" t="inlineStr"/>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
+      <c r="H12" s="1" t="inlineStr"/>
       <c r="I12" s="1" t="inlineStr"/>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
+      <c r="J12" s="1" t="inlineStr"/>
+      <c r="K12" s="1" t="inlineStr"/>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>R-4 Piezometer West, R-4 Piezometer West</t>
+          <t>Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
         </is>
       </c>
       <c r="M12" s="1" t="inlineStr"/>
-      <c r="N12" s="1" t="inlineStr"/>
-      <c r="O12" s="1" t="inlineStr"/>
+      <c r="N12" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O12" s="1" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>Los Alamos</t>
+          <t>Pajarito</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr"/>
       <c r="R12" s="1" t="inlineStr"/>
-      <c r="S12" s="1" t="inlineStr"/>
-      <c r="T12" s="1" t="inlineStr"/>
+      <c r="S12" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T12" s="1" t="inlineStr">
+        <is>
+          <t>Aquifer updated from MW</t>
+        </is>
+      </c>
       <c r="U12" s="1" t="inlineStr">
         <is>
-          <t>Monitoring Wells</t>
+          <t>Well Info</t>
         </is>
       </c>
       <c r="V12" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="W12" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2000-03-12</t>
         </is>
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2000-03-12</t>
         </is>
       </c>
       <c r="Z12" s="1" t="inlineStr">
@@ -1945,7 +1961,7 @@
       </c>
       <c r="AD12" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE12" s="1" t="inlineStr"/>
@@ -1960,7 +1976,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>R-5 S1</t>
+          <t>R-19 S1</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -1970,22 +1986,22 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>35.87307</t>
+          <t>35.83787</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>-106.22877</t>
+          <t>-106.28542</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>6472.600</t>
+          <t>7066.300</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>Tp</t>
+          <t>Qbog</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr"/>
@@ -1993,17 +2009,17 @@
       <c r="I13" s="1" t="inlineStr"/>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>326.4</t>
+          <t>827.2</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>331.500</t>
+          <t>843.600</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap monument survey data from R-5 WCR., Location info taken from Brass cap monument survey data from R-5 WCR., Location info taken from Brass cap monument survey data from R-5 WCR.</t>
+          <t>Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
         </is>
       </c>
       <c r="M13" s="1" t="inlineStr"/>
@@ -2014,12 +2030,12 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>TA-21</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>Los Alamos</t>
+          <t>Pajarito</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr"/>
@@ -2083,666 +2099,6 @@
       <c r="AE13" s="1" t="inlineStr"/>
       <c r="AF13" s="1" t="inlineStr"/>
       <c r="AG13" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>R-7 OB</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>Intermediate</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>35.87469</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>-106.27954</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>6779.200</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr"/>
-      <c r="G14" s="1" t="inlineStr"/>
-      <c r="H14" s="1" t="inlineStr"/>
-      <c r="I14" s="1" t="inlineStr"/>
-      <c r="J14" s="1" t="inlineStr"/>
-      <c r="K14" s="1" t="inlineStr"/>
-      <c r="L14" s="1" t="inlineStr">
-        <is>
-          <t>Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR.</t>
-        </is>
-      </c>
-      <c r="M14" s="1" t="inlineStr"/>
-      <c r="N14" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
-      <c r="O14" s="1" t="inlineStr">
-        <is>
-          <t>TA-21</t>
-        </is>
-      </c>
-      <c r="P14" s="1" t="inlineStr">
-        <is>
-          <t>Los Alamos</t>
-        </is>
-      </c>
-      <c r="Q14" s="1" t="inlineStr"/>
-      <c r="R14" s="1" t="inlineStr"/>
-      <c r="S14" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
-      <c r="T14" s="1" t="inlineStr">
-        <is>
-          <t>Aquifer updated from MW</t>
-        </is>
-      </c>
-      <c r="U14" s="1" t="inlineStr">
-        <is>
-          <t>Well Info</t>
-        </is>
-      </c>
-      <c r="V14" s="1" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="W14" s="1" t="inlineStr">
-        <is>
-          <t>2001-01-06</t>
-        </is>
-      </c>
-      <c r="X14" s="1" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="Y14" s="1" t="inlineStr">
-        <is>
-          <t>2001-01-10</t>
-        </is>
-      </c>
-      <c r="Z14" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AA14" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AB14" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AC14" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AD14" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AE14" s="1" t="inlineStr"/>
-      <c r="AF14" s="1" t="inlineStr"/>
-      <c r="AG14" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>R-7 S2</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>Intermediate</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>35.87469</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>-106.27954</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t>6779.200</t>
-        </is>
-      </c>
-      <c r="F15" s="1" t="inlineStr">
-        <is>
-          <t>Tp</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr"/>
-      <c r="H15" s="1" t="inlineStr"/>
-      <c r="I15" s="1" t="inlineStr"/>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>730.4</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="inlineStr">
-        <is>
-          <t>746.400</t>
-        </is>
-      </c>
-      <c r="L15" s="1" t="inlineStr">
-        <is>
-          <t>Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR.</t>
-        </is>
-      </c>
-      <c r="M15" s="1" t="inlineStr"/>
-      <c r="N15" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
-      <c r="O15" s="1" t="inlineStr">
-        <is>
-          <t>TA-21</t>
-        </is>
-      </c>
-      <c r="P15" s="1" t="inlineStr">
-        <is>
-          <t>Los Alamos</t>
-        </is>
-      </c>
-      <c r="Q15" s="1" t="inlineStr"/>
-      <c r="R15" s="1" t="inlineStr"/>
-      <c r="S15" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
-      <c r="T15" s="1" t="inlineStr"/>
-      <c r="U15" s="1" t="inlineStr">
-        <is>
-          <t>Well Info</t>
-        </is>
-      </c>
-      <c r="V15" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="W15" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="X15" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="Y15" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="Z15" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AA15" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AB15" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AC15" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AD15" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE15" s="1" t="inlineStr"/>
-      <c r="AF15" s="1" t="inlineStr"/>
-      <c r="AG15" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>03-MW-1</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>Intermediate</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>35.87374</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>-106.33013</t>
-        </is>
-      </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t>7457.7</t>
-        </is>
-      </c>
-      <c r="F16" s="1" t="inlineStr">
-        <is>
-          <t>Qbt3</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
-        <is>
-          <t>1994-09-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>28.80</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
-        <is>
-          <t>2 in</t>
-        </is>
-      </c>
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="inlineStr">
-        <is>
-          <t>28.000</t>
-        </is>
-      </c>
-      <c r="L16" s="1" t="inlineStr">
-        <is>
-          <t>ER ID 03-02664 plugged and abandoned 6/7/05, ER ID 03-02664 Well plugged and abandoned 6/7/05, ER ID 03-02664 Well plugged and abandoned 6/7/05</t>
-        </is>
-      </c>
-      <c r="M16" s="1" t="inlineStr"/>
-      <c r="N16" s="1" t="inlineStr"/>
-      <c r="O16" s="1" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="P16" s="1" t="inlineStr">
-        <is>
-          <t>Pajarito</t>
-        </is>
-      </c>
-      <c r="Q16" s="1" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="R16" s="1" t="inlineStr"/>
-      <c r="S16" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
-      <c r="T16" s="1" t="inlineStr">
-        <is>
-          <t>Ground Elevation updated from MW, Well Diameter [in] updated from MW</t>
-        </is>
-      </c>
-      <c r="U16" s="1" t="inlineStr">
-        <is>
-          <t>Well Info</t>
-        </is>
-      </c>
-      <c r="V16" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="W16" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="X16" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="Y16" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="Z16" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AA16" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AB16" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AC16" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AD16" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE16" s="1" t="inlineStr"/>
-      <c r="AF16" s="1" t="inlineStr"/>
-      <c r="AG16" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>R-19 OB</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>Intermediate</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>35.83787</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>-106.28542</t>
-        </is>
-      </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>7066.300</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr"/>
-      <c r="G17" s="1" t="inlineStr"/>
-      <c r="H17" s="1" t="inlineStr"/>
-      <c r="I17" s="1" t="inlineStr"/>
-      <c r="J17" s="1" t="inlineStr"/>
-      <c r="K17" s="1" t="inlineStr"/>
-      <c r="L17" s="1" t="inlineStr">
-        <is>
-          <t>Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
-        </is>
-      </c>
-      <c r="M17" s="1" t="inlineStr"/>
-      <c r="N17" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
-      <c r="O17" s="1" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="P17" s="1" t="inlineStr">
-        <is>
-          <t>Pajarito</t>
-        </is>
-      </c>
-      <c r="Q17" s="1" t="inlineStr"/>
-      <c r="R17" s="1" t="inlineStr"/>
-      <c r="S17" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
-      <c r="T17" s="1" t="inlineStr">
-        <is>
-          <t>Aquifer updated from MW</t>
-        </is>
-      </c>
-      <c r="U17" s="1" t="inlineStr">
-        <is>
-          <t>Well Info</t>
-        </is>
-      </c>
-      <c r="V17" s="1" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="W17" s="1" t="inlineStr">
-        <is>
-          <t>2000-03-12</t>
-        </is>
-      </c>
-      <c r="X17" s="1" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="Y17" s="1" t="inlineStr">
-        <is>
-          <t>2000-03-12</t>
-        </is>
-      </c>
-      <c r="Z17" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AA17" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AB17" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AC17" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AD17" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE17" s="1" t="inlineStr"/>
-      <c r="AF17" s="1" t="inlineStr"/>
-      <c r="AG17" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>R-19 S1</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>Intermediate</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>35.83787</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>-106.28542</t>
-        </is>
-      </c>
-      <c r="E18" s="1" t="inlineStr">
-        <is>
-          <t>7066.300</t>
-        </is>
-      </c>
-      <c r="F18" s="1" t="inlineStr">
-        <is>
-          <t>Qbog</t>
-        </is>
-      </c>
-      <c r="G18" s="1" t="inlineStr"/>
-      <c r="H18" s="1" t="inlineStr"/>
-      <c r="I18" s="1" t="inlineStr"/>
-      <c r="J18" s="1" t="inlineStr">
-        <is>
-          <t>827.2</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
-        <is>
-          <t>843.600</t>
-        </is>
-      </c>
-      <c r="L18" s="1" t="inlineStr">
-        <is>
-          <t>Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
-        </is>
-      </c>
-      <c r="M18" s="1" t="inlineStr"/>
-      <c r="N18" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
-      <c r="O18" s="1" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="P18" s="1" t="inlineStr">
-        <is>
-          <t>Pajarito</t>
-        </is>
-      </c>
-      <c r="Q18" s="1" t="inlineStr"/>
-      <c r="R18" s="1" t="inlineStr"/>
-      <c r="S18" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
-      <c r="T18" s="1" t="inlineStr"/>
-      <c r="U18" s="1" t="inlineStr">
-        <is>
-          <t>Well Info</t>
-        </is>
-      </c>
-      <c r="V18" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="W18" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="X18" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="Y18" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="Z18" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AA18" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AB18" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AC18" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AD18" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE18" s="1" t="inlineStr"/>
-      <c r="AF18" s="1" t="inlineStr"/>
-      <c r="AG18" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -2760,7 +2116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2880,28 +2236,24 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MCOI-1</t>
+          <t>MCOBT-4.4 OB</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>35.8645331</t>
+          <t>35.86057</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>-106.2917572</t>
+          <t>-106.27102</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr"/>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>825.6</t>
-        </is>
-      </c>
+      <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>815 - 825.48</t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -2916,38 +2268,60 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>Mortendad Canyon</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="n"/>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>R-23i OB</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>35.82385</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>-106.22476</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr"/>
+      <c r="E7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>10/20/05</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MCO-7.2</t>
+          <t>R-41 S1</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>35.8606409</t>
+          <t>35.83099</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>-106.2684259</t>
+          <t>-106.23381</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr"/>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>95.35</t>
-        </is>
-      </c>
+      <c r="E8" s="1" t="inlineStr"/>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>72 - 92.5</t>
+          <t>928 - 937.7</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -2962,53 +2336,27 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>MCOBT-4.4 OB</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>35.86057</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>-106.27102</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr"/>
-      <c r="E9" s="1" t="inlineStr"/>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>Los Alamos and Pajarito Canyons</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>R-23i OB</t>
+          <t>LAOI-3.2 OB</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>35.82385</t>
+          <t>35.87308</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>-106.22476</t>
+          <t>-106.25937</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr"/>
@@ -3020,116 +2368,138 @@
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>10/20/05</t>
+          <t>No Data</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>R-41 S1</t>
+          <t>LAOI-3.2a OB</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>35.83099</t>
+          <t>35.87318</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>-106.23381</t>
+          <t>-106.25944</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr"/>
       <c r="E11" s="1" t="inlineStr"/>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>928 - 937.7</t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>7/30/05</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Mortendad Canyon</t>
-        </is>
-      </c>
-      <c r="H12" s="5" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>R-5 S1</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>35.87307</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>-106.22877</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr"/>
+      <c r="E12" s="1" t="inlineStr"/>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>326.4 - 331.5</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>BCO-1</t>
+          <t>R-7 OB</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>35.8891488</t>
+          <t>35.87469</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>-106.2492164</t>
+          <t>-106.27954</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr"/>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
+      <c r="E13" s="1" t="inlineStr"/>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>57 - 67</t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1/6/01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>LAOI-3.2 OB</t>
+          <t>R-7 S2</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>35.87308</t>
+          <t>35.87469</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>-106.25937</t>
+          <t>-106.27954</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr"/>
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>730.4 - 746.4</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -3146,100 +2516,100 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>LAOI-3.2a OB</t>
+          <t>03-MW-1</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>35.87318</t>
+          <t>35.87374</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>-106.25944</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr"/>
-      <c r="E15" s="1" t="inlineStr"/>
+          <t>-106.33013</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>9/22/94</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>28.8</t>
+        </is>
+      </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>23 - 28</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>7/30/05</t>
+          <t>No Data</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>R-4 PZ-E</t>
+          <t>R-19 OB</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>35.8825612</t>
+          <t>35.83787</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>-106.2537778</t>
+          <t>-106.28542</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr"/>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
+      <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>221 - 231</t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>3/12/00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>R-4 PZ-W</t>
+          <t>R-19 S1</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>35.8825612</t>
+          <t>35.83787</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>-106.2537784</t>
+          <t>-106.28542</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr"/>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
+      <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>115 - 125</t>
+          <t>827.2 - 843.6</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
@@ -3253,225 +2623,12 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>R-5 S1</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>35.87307</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>-106.22877</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr"/>
-      <c r="E18" s="1" t="inlineStr"/>
-      <c r="F18" s="1" t="inlineStr">
-        <is>
-          <t>326.4 - 331.5</t>
-        </is>
-      </c>
-      <c r="G18" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>R-7 OB</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>35.87469</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>-106.27954</t>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr"/>
-      <c r="E19" s="1" t="inlineStr"/>
-      <c r="F19" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>1/6/01</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>R-7 S2</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>35.87469</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>-106.27954</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr"/>
-      <c r="E20" s="1" t="inlineStr"/>
-      <c r="F20" s="1" t="inlineStr">
-        <is>
-          <t>730.4 - 746.4</t>
-        </is>
-      </c>
-      <c r="G20" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>03-MW-1</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>35.87374</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>-106.33013</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>9/22/94</t>
-        </is>
-      </c>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t>28.8</t>
-        </is>
-      </c>
-      <c r="F21" s="1" t="inlineStr">
-        <is>
-          <t>23 - 28</t>
-        </is>
-      </c>
-      <c r="G21" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>R-19 OB</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>35.83787</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>-106.28542</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr"/>
-      <c r="E22" s="1" t="inlineStr"/>
-      <c r="F22" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="G22" s="1" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>3/12/00</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>R-19 S1</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>35.83787</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>-106.28542</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr"/>
-      <c r="E23" s="1" t="inlineStr"/>
-      <c r="F23" s="1" t="inlineStr">
-        <is>
-          <t>827.2 - 843.6</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A9:H9"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Tables/Intermediate- Excluded.xlsx
+++ b/Tables/Intermediate- Excluded.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Intermediate for Mapping" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Intermediate Exhibit" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intermediate for Mapping" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intermediate Exhibit" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -633,12 +633,12 @@
       </c>
       <c r="V2" s="1" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>1997-04-10</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X2" s="1" t="inlineStr">
@@ -1921,12 +1921,12 @@
       </c>
       <c r="V12" s="1" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W12" s="1" t="inlineStr">
         <is>
-          <t>2000-03-12</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X12" s="1" t="inlineStr">
@@ -2216,12 +2216,12 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>4/10/97</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -2580,12 +2580,12 @@
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>3/12/00</t>
+          <t>NA</t>
         </is>
       </c>
     </row>

--- a/Tables/Intermediate- Excluded.xlsx
+++ b/Tables/Intermediate- Excluded.xlsx
@@ -643,12 +643,12 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
         <is>
-          <t>1997-04-10</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z2" s="1" t="inlineStr">
@@ -1931,12 +1931,12 @@
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
         <is>
-          <t>2000-03-12</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z12" s="1" t="inlineStr">

--- a/Tables/Intermediate- Excluded.xlsx
+++ b/Tables/Intermediate- Excluded.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,7 +688,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MCOBT-4.4 OB</t>
+          <t>MCO-7.2</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -698,41 +698,53 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>35.86057</t>
+          <t>35.8606409</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>-106.27102</t>
+          <t>-106.2684259</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>6836.180</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr"/>
+          <t>6818.34</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Qct</t>
+        </is>
+      </c>
       <c r="G3" s="1" t="inlineStr"/>
-      <c r="H3" s="1" t="inlineStr"/>
-      <c r="I3" s="1" t="inlineStr"/>
-      <c r="J3" s="1" t="inlineStr"/>
-      <c r="K3" s="1" t="inlineStr"/>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>Brass Monument MCOBT-4.4 plugged and abandoned 7/29/09, Brass Monument  MCOBT-4.4 plugged and abandoned 7/29/09, Brass Monument  MCOBT-4.4 plugged and abandoned 7/29/09</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr"/>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Chromium</t>
-        </is>
-      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>2 in</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>92.5</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr"/>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.intellusnm.com/documents/document-library.cfc?method=retrieveLanlFile&amp;nodeId=12199</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr"/>
+      <c r="O3" s="1" t="inlineStr"/>
       <c r="P3" s="1" t="inlineStr">
         <is>
           <t>Mortendad</t>
@@ -740,19 +752,11 @@
       </c>
       <c r="Q3" s="1" t="inlineStr"/>
       <c r="R3" s="1" t="inlineStr"/>
-      <c r="S3" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>Aquifer updated from MW</t>
-        </is>
-      </c>
+      <c r="S3" s="1" t="inlineStr"/>
+      <c r="T3" s="1" t="inlineStr"/>
       <c r="U3" s="1" t="inlineStr">
         <is>
-          <t>Well Info</t>
+          <t>Monitoring Wells</t>
         </is>
       </c>
       <c r="V3" s="1" t="inlineStr">
@@ -812,7 +816,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R-23i OB</t>
+          <t>MCOBT-4.4 OB</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -822,17 +826,17 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>35.82385</t>
+          <t>35.86057</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>-106.22476</t>
+          <t>-106.27102</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>6527.880</t>
+          <t>6836.180</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr"/>
@@ -843,7 +847,7 @@
       <c r="K4" s="1" t="inlineStr"/>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
+          <t>Brass Monument MCOBT-4.4 plugged and abandoned 7/29/09, Brass Monument  MCOBT-4.4 plugged and abandoned 7/29/09, Brass Monument  MCOBT-4.4 plugged and abandoned 7/29/09</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr"/>
@@ -854,7 +858,7 @@
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>Chromium</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
@@ -881,22 +885,22 @@
       </c>
       <c r="V4" s="1" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W4" s="1" t="inlineStr">
         <is>
-          <t>2005-10-20</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X4" s="1" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Y4" s="1" t="inlineStr">
         <is>
-          <t>2005-10-31</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Z4" s="1" t="inlineStr">
@@ -921,7 +925,7 @@
       </c>
       <c r="AD4" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE4" s="1" t="inlineStr"/>
@@ -936,7 +940,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>R-41 S1</t>
+          <t>MCOI-1</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -946,53 +950,57 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>35.83099</t>
+          <t>35.8645331</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>-106.23381</t>
+          <t>-106.2917572</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>6660.530</t>
+          <t>7106.2</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>Tsf</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr"/>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>825.6</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>0.81 in</t>
+        </is>
+      </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>815</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>937.700</t>
+          <t>825.48</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass cap location, Brass cap location</t>
-        </is>
-      </c>
-      <c r="M5" s="1" t="inlineStr"/>
-      <c r="N5" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>TA-54</t>
-        </is>
-      </c>
+          <t>Brass cap in I-1 pad, Brass cap in I-1 pad</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.intellusnm.com/documents/document-library.cfc?method=retrieveLanlFile&amp;nodeId=12224</t>
+        </is>
+      </c>
+      <c r="N5" s="1" t="inlineStr"/>
+      <c r="O5" s="1" t="inlineStr"/>
       <c r="P5" s="1" t="inlineStr">
         <is>
           <t>Mortendad</t>
@@ -1002,13 +1010,13 @@
       <c r="R5" s="1" t="inlineStr"/>
       <c r="S5" s="1" t="inlineStr">
         <is>
-          <t>[84]</t>
+          <t>7110</t>
         </is>
       </c>
       <c r="T5" s="1" t="inlineStr"/>
       <c r="U5" s="1" t="inlineStr">
         <is>
-          <t>Well Info</t>
+          <t>Monitoring Wells</t>
         </is>
       </c>
       <c r="V5" s="1" t="inlineStr">
@@ -1068,7 +1076,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>LAOI-3.2 OB</t>
+          <t>R-23i OB</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -1078,17 +1086,17 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>35.87308</t>
+          <t>35.82385</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>-106.25937</t>
+          <t>-106.22476</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>6622.600</t>
+          <t>6527.880</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr"/>
@@ -1099,7 +1107,7 @@
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>added for P Longmire.  Location data taken from Brass Cap survey data., added for P Longmire.  Location data taken from Brass Cap survey data., added for P Longmire.  Location data taken from Brass Cap survey data.</t>
+          <t>Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr"/>
@@ -1110,12 +1118,12 @@
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>TA-21</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>Los Alamos</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr"/>
@@ -1137,22 +1145,22 @@
       </c>
       <c r="V6" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="W6" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2005-10-20</t>
         </is>
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2005-10-31</t>
         </is>
       </c>
       <c r="Z6" s="1" t="inlineStr">
@@ -1177,7 +1185,7 @@
       </c>
       <c r="AD6" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE6" s="1" t="inlineStr"/>
@@ -1192,7 +1200,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>LAOI-3.2a OB</t>
+          <t>R-41 S1</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -1202,28 +1210,40 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>35.87318</t>
+          <t>35.83099</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>-106.25944</t>
+          <t>-106.23381</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>6624.430</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr"/>
+          <t>6660.530</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>Tsf</t>
+        </is>
+      </c>
       <c r="G7" s="1" t="inlineStr"/>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="inlineStr"/>
-      <c r="J7" s="1" t="inlineStr"/>
-      <c r="K7" s="1" t="inlineStr"/>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>937.700</t>
+        </is>
+      </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap Location, Brass Cap Location, Brass Cap Location</t>
+          <t>Brass cap location, Brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr"/>
@@ -1234,12 +1254,12 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>TA-21</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>Los Alamos</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr"/>
@@ -1249,11 +1269,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T7" s="1" t="inlineStr">
-        <is>
-          <t>Aquifer updated from MW</t>
-        </is>
-      </c>
+      <c r="T7" s="1" t="inlineStr"/>
       <c r="U7" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -1261,22 +1277,22 @@
       </c>
       <c r="V7" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W7" s="1" t="inlineStr">
         <is>
-          <t>2005-07-30</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X7" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Y7" s="1" t="inlineStr">
         <is>
-          <t>2005-07-30</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Z7" s="1" t="inlineStr">
@@ -1301,7 +1317,7 @@
       </c>
       <c r="AD7" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE7" s="1" t="inlineStr"/>
@@ -1316,7 +1332,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>R-5 S1</t>
+          <t>BCO-1</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1326,53 +1342,53 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>35.87307</t>
+          <t>35.8891488</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>-106.22877</t>
+          <t>-106.2492164</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>6472.600</t>
+          <t>6641.97</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>Tp</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr"/>
-      <c r="H8" s="1" t="inlineStr"/>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
       <c r="I8" s="1" t="inlineStr"/>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>326.4</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>331.500</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap monument survey data from R-5 WCR., Location info taken from Brass cap monument survey data from R-5 WCR., Location info taken from Brass cap monument survey data from R-5 WCR.</t>
-        </is>
-      </c>
-      <c r="M8" s="1" t="inlineStr"/>
-      <c r="N8" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
-      <c r="O8" s="1" t="inlineStr">
-        <is>
-          <t>TA-21</t>
-        </is>
-      </c>
+          <t>Intermediate monitoring well, Intermediate monitoring well</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.intellusnm.com/documents/document-library.cfc?method=retrieveLanlFile&amp;nodeId=12437</t>
+        </is>
+      </c>
+      <c r="N8" s="1" t="inlineStr"/>
+      <c r="O8" s="1" t="inlineStr"/>
       <c r="P8" s="1" t="inlineStr">
         <is>
           <t>Los Alamos</t>
@@ -1380,15 +1396,11 @@
       </c>
       <c r="Q8" s="1" t="inlineStr"/>
       <c r="R8" s="1" t="inlineStr"/>
-      <c r="S8" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
+      <c r="S8" s="1" t="inlineStr"/>
       <c r="T8" s="1" t="inlineStr"/>
       <c r="U8" s="1" t="inlineStr">
         <is>
-          <t>Well Info</t>
+          <t>Monitoring Wells</t>
         </is>
       </c>
       <c r="V8" s="1" t="inlineStr">
@@ -1448,7 +1460,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>R-7 OB</t>
+          <t>LAOI-3.2 OB</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -1458,17 +1470,17 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>35.87469</t>
+          <t>35.87308</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>-106.27954</t>
+          <t>-106.25937</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>6779.200</t>
+          <t>6622.600</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr"/>
@@ -1479,7 +1491,7 @@
       <c r="K9" s="1" t="inlineStr"/>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR.</t>
+          <t>added for P Longmire.  Location data taken from Brass Cap survey data., added for P Longmire.  Location data taken from Brass Cap survey data., added for P Longmire.  Location data taken from Brass Cap survey data.</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr"/>
@@ -1517,22 +1529,22 @@
       </c>
       <c r="V9" s="1" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W9" s="1" t="inlineStr">
         <is>
-          <t>2001-01-06</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
         <is>
-          <t>2001-01-10</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Z9" s="1" t="inlineStr">
@@ -1557,7 +1569,7 @@
       </c>
       <c r="AD9" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE9" s="1" t="inlineStr"/>
@@ -1572,7 +1584,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>R-7 S2</t>
+          <t>LAOI-3.2a OB</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -1582,40 +1594,28 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>35.87469</t>
+          <t>35.87318</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>-106.27954</t>
+          <t>-106.25944</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>6779.200</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>Tp</t>
-        </is>
-      </c>
+          <t>6624.430</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr"/>
       <c r="G10" s="1" t="inlineStr"/>
       <c r="H10" s="1" t="inlineStr"/>
       <c r="I10" s="1" t="inlineStr"/>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>730.4</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t>746.400</t>
-        </is>
-      </c>
+      <c r="J10" s="1" t="inlineStr"/>
+      <c r="K10" s="1" t="inlineStr"/>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR.</t>
+          <t>Brass Cap Location, Brass Cap Location, Brass Cap Location</t>
         </is>
       </c>
       <c r="M10" s="1" t="inlineStr"/>
@@ -1641,7 +1641,11 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T10" s="1" t="inlineStr"/>
+      <c r="T10" s="1" t="inlineStr">
+        <is>
+          <t>Aquifer updated from MW</t>
+        </is>
+      </c>
       <c r="U10" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -1649,22 +1653,22 @@
       </c>
       <c r="V10" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W10" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2005-07-30</t>
         </is>
       </c>
       <c r="X10" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y10" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2005-07-30</t>
         </is>
       </c>
       <c r="Z10" s="1" t="inlineStr">
@@ -1689,7 +1693,7 @@
       </c>
       <c r="AD10" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE10" s="1" t="inlineStr"/>
@@ -1704,7 +1708,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>03-MW-1</t>
+          <t>R-4 PZ-E</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -1714,85 +1718,65 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>35.87374</t>
+          <t>35.8825612</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>-106.33013</t>
+          <t>-106.2537778</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>7457.7</t>
+          <t>6577.34</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>Qbt3</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>1994-09-22 00:00:00</t>
-        </is>
-      </c>
+          <t>Tpf</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr"/>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>28.80</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
-        <is>
-          <t>2 in</t>
-        </is>
-      </c>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="inlineStr"/>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>28.000</t>
+          <t>231</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>ER ID 03-02664 plugged and abandoned 6/7/05, ER ID 03-02664 Well plugged and abandoned 6/7/05, ER ID 03-02664 Well plugged and abandoned 6/7/05</t>
-        </is>
-      </c>
-      <c r="M11" s="1" t="inlineStr"/>
+          <t>R-4 Piezometer East, R-4 Piezometer East</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.intellusnm.com/documents/document-library.cfc?method=retrieveLanlFile&amp;nodeId=12295</t>
+        </is>
+      </c>
       <c r="N11" s="1" t="inlineStr"/>
-      <c r="O11" s="1" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
+      <c r="O11" s="1" t="inlineStr"/>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>Pajarito</t>
-        </is>
-      </c>
-      <c r="Q11" s="1" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
+          <t>Los Alamos</t>
+        </is>
+      </c>
+      <c r="Q11" s="1" t="inlineStr"/>
       <c r="R11" s="1" t="inlineStr"/>
-      <c r="S11" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
-      <c r="T11" s="1" t="inlineStr">
-        <is>
-          <t>Ground Elevation updated from MW, Well Diameter [in] updated from MW</t>
-        </is>
-      </c>
+      <c r="S11" s="1" t="inlineStr"/>
+      <c r="T11" s="1" t="inlineStr"/>
       <c r="U11" s="1" t="inlineStr">
         <is>
-          <t>Well Info</t>
+          <t>Monitoring Wells</t>
         </is>
       </c>
       <c r="V11" s="1" t="inlineStr">
@@ -1852,7 +1836,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>R-19 OB</t>
+          <t>R-4 PZ-W</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -1862,81 +1846,81 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>35.83787</t>
+          <t>35.8825612</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>-106.28542</t>
+          <t>-106.2537784</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>7066.300</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr"/>
+          <t>6577.35</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>Tpf</t>
+        </is>
+      </c>
       <c r="G12" s="1" t="inlineStr"/>
-      <c r="H12" s="1" t="inlineStr"/>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
       <c r="I12" s="1" t="inlineStr"/>
-      <c r="J12" s="1" t="inlineStr"/>
-      <c r="K12" s="1" t="inlineStr"/>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
+          <t>R-4 Piezometer West, R-4 Piezometer West</t>
         </is>
       </c>
       <c r="M12" s="1" t="inlineStr"/>
-      <c r="N12" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
-      <c r="O12" s="1" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
+      <c r="N12" s="1" t="inlineStr"/>
+      <c r="O12" s="1" t="inlineStr"/>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>Pajarito</t>
+          <t>Los Alamos</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr"/>
       <c r="R12" s="1" t="inlineStr"/>
-      <c r="S12" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
-      <c r="T12" s="1" t="inlineStr">
-        <is>
-          <t>Aquifer updated from MW</t>
-        </is>
-      </c>
+      <c r="S12" s="1" t="inlineStr"/>
+      <c r="T12" s="1" t="inlineStr"/>
       <c r="U12" s="1" t="inlineStr">
         <is>
-          <t>Well Info</t>
+          <t>Monitoring Wells</t>
         </is>
       </c>
       <c r="V12" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W12" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Z12" s="1" t="inlineStr">
@@ -1961,7 +1945,7 @@
       </c>
       <c r="AD12" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE12" s="1" t="inlineStr"/>
@@ -1976,7 +1960,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>R-19 S1</t>
+          <t>R-5 S1</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -1986,22 +1970,22 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>35.83787</t>
+          <t>35.87307</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>-106.28542</t>
+          <t>-106.22877</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>7066.300</t>
+          <t>6472.600</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>Qbog</t>
+          <t>Tp</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr"/>
@@ -2009,17 +1993,17 @@
       <c r="I13" s="1" t="inlineStr"/>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>827.2</t>
+          <t>326.4</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>843.600</t>
+          <t>331.500</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
+          <t>Location info taken from Brass cap monument survey data from R-5 WCR., Location info taken from Brass cap monument survey data from R-5 WCR., Location info taken from Brass cap monument survey data from R-5 WCR.</t>
         </is>
       </c>
       <c r="M13" s="1" t="inlineStr"/>
@@ -2030,12 +2014,12 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>Pajarito</t>
+          <t>Los Alamos</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr"/>
@@ -2099,6 +2083,666 @@
       <c r="AE13" s="1" t="inlineStr"/>
       <c r="AF13" s="1" t="inlineStr"/>
       <c r="AG13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>R-7 OB</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>35.87469</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>-106.27954</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>6779.200</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr"/>
+      <c r="G14" s="1" t="inlineStr"/>
+      <c r="H14" s="1" t="inlineStr"/>
+      <c r="I14" s="1" t="inlineStr"/>
+      <c r="J14" s="1" t="inlineStr"/>
+      <c r="K14" s="1" t="inlineStr"/>
+      <c r="L14" s="1" t="inlineStr">
+        <is>
+          <t>Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR.</t>
+        </is>
+      </c>
+      <c r="M14" s="1" t="inlineStr"/>
+      <c r="N14" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O14" s="1" t="inlineStr">
+        <is>
+          <t>TA-21</t>
+        </is>
+      </c>
+      <c r="P14" s="1" t="inlineStr">
+        <is>
+          <t>Los Alamos</t>
+        </is>
+      </c>
+      <c r="Q14" s="1" t="inlineStr"/>
+      <c r="R14" s="1" t="inlineStr"/>
+      <c r="S14" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T14" s="1" t="inlineStr">
+        <is>
+          <t>Aquifer updated from MW</t>
+        </is>
+      </c>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V14" s="1" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="W14" s="1" t="inlineStr">
+        <is>
+          <t>2001-01-06</t>
+        </is>
+      </c>
+      <c r="X14" s="1" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="Y14" s="1" t="inlineStr">
+        <is>
+          <t>2001-01-10</t>
+        </is>
+      </c>
+      <c r="Z14" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA14" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB14" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC14" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD14" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AE14" s="1" t="inlineStr"/>
+      <c r="AF14" s="1" t="inlineStr"/>
+      <c r="AG14" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>R-7 S2</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>35.87469</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>-106.27954</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>6779.200</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>Tp</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr"/>
+      <c r="H15" s="1" t="inlineStr"/>
+      <c r="I15" s="1" t="inlineStr"/>
+      <c r="J15" s="1" t="inlineStr">
+        <is>
+          <t>730.4</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>746.400</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="inlineStr">
+        <is>
+          <t>Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR.</t>
+        </is>
+      </c>
+      <c r="M15" s="1" t="inlineStr"/>
+      <c r="N15" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O15" s="1" t="inlineStr">
+        <is>
+          <t>TA-21</t>
+        </is>
+      </c>
+      <c r="P15" s="1" t="inlineStr">
+        <is>
+          <t>Los Alamos</t>
+        </is>
+      </c>
+      <c r="Q15" s="1" t="inlineStr"/>
+      <c r="R15" s="1" t="inlineStr"/>
+      <c r="S15" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T15" s="1" t="inlineStr"/>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V15" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="W15" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="X15" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="Y15" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="Z15" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA15" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB15" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC15" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD15" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE15" s="1" t="inlineStr"/>
+      <c r="AF15" s="1" t="inlineStr"/>
+      <c r="AG15" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>03-MW-1</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>35.87374</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>-106.33013</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>7457.7</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>Qbt3</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>1994-09-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="inlineStr">
+        <is>
+          <t>2 in</t>
+        </is>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>28.000</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="inlineStr">
+        <is>
+          <t>ER ID 03-02664 plugged and abandoned 6/7/05, ER ID 03-02664 Well plugged and abandoned 6/7/05, ER ID 03-02664 Well plugged and abandoned 6/7/05</t>
+        </is>
+      </c>
+      <c r="M16" s="1" t="inlineStr"/>
+      <c r="N16" s="1" t="inlineStr"/>
+      <c r="O16" s="1" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="P16" s="1" t="inlineStr">
+        <is>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q16" s="1" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="R16" s="1" t="inlineStr"/>
+      <c r="S16" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T16" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW, Well Diameter [in] updated from MW</t>
+        </is>
+      </c>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V16" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="W16" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="X16" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="Y16" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="Z16" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA16" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB16" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC16" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD16" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE16" s="1" t="inlineStr"/>
+      <c r="AF16" s="1" t="inlineStr"/>
+      <c r="AG16" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>R-19 OB</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>35.83787</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>-106.28542</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>7066.300</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr"/>
+      <c r="G17" s="1" t="inlineStr"/>
+      <c r="H17" s="1" t="inlineStr"/>
+      <c r="I17" s="1" t="inlineStr"/>
+      <c r="J17" s="1" t="inlineStr"/>
+      <c r="K17" s="1" t="inlineStr"/>
+      <c r="L17" s="1" t="inlineStr">
+        <is>
+          <t>Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
+        </is>
+      </c>
+      <c r="M17" s="1" t="inlineStr"/>
+      <c r="N17" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O17" s="1" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="P17" s="1" t="inlineStr">
+        <is>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q17" s="1" t="inlineStr"/>
+      <c r="R17" s="1" t="inlineStr"/>
+      <c r="S17" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T17" s="1" t="inlineStr">
+        <is>
+          <t>Aquifer updated from MW</t>
+        </is>
+      </c>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V17" s="1" t="inlineStr">
+        <is>
+          <t>No Detect Data</t>
+        </is>
+      </c>
+      <c r="W17" s="1" t="inlineStr">
+        <is>
+          <t>No Detect Data</t>
+        </is>
+      </c>
+      <c r="X17" s="1" t="inlineStr">
+        <is>
+          <t>No Detect Data</t>
+        </is>
+      </c>
+      <c r="Y17" s="1" t="inlineStr">
+        <is>
+          <t>No Detect Data</t>
+        </is>
+      </c>
+      <c r="Z17" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA17" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB17" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC17" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD17" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE17" s="1" t="inlineStr"/>
+      <c r="AF17" s="1" t="inlineStr"/>
+      <c r="AG17" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>R-19 S1</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>35.83787</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>-106.28542</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>7066.300</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>Qbog</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr"/>
+      <c r="H18" s="1" t="inlineStr"/>
+      <c r="I18" s="1" t="inlineStr"/>
+      <c r="J18" s="1" t="inlineStr">
+        <is>
+          <t>827.2</t>
+        </is>
+      </c>
+      <c r="K18" s="1" t="inlineStr">
+        <is>
+          <t>843.600</t>
+        </is>
+      </c>
+      <c r="L18" s="1" t="inlineStr">
+        <is>
+          <t>Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
+        </is>
+      </c>
+      <c r="M18" s="1" t="inlineStr"/>
+      <c r="N18" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O18" s="1" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="P18" s="1" t="inlineStr">
+        <is>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q18" s="1" t="inlineStr"/>
+      <c r="R18" s="1" t="inlineStr"/>
+      <c r="S18" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T18" s="1" t="inlineStr"/>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V18" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="W18" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="X18" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="Y18" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="Z18" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA18" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB18" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC18" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD18" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE18" s="1" t="inlineStr"/>
+      <c r="AF18" s="1" t="inlineStr"/>
+      <c r="AG18" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -2116,7 +2760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2124,12 +2768,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="11.29"/>
+    <col customWidth="1" max="1" min="1" width="12.25"/>
     <col customWidth="1" max="2" min="2" width="10.14"/>
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="9.15"/>
     <col customWidth="1" max="5" min="5" width="7"/>
-    <col customWidth="1" max="6" min="6" width="13.43"/>
+    <col customWidth="1" max="6" min="6" width="16.25"/>
     <col customWidth="1" max="7" min="7" width="8.43"/>
     <col customWidth="1" max="8" min="8" width="8.43"/>
   </cols>
@@ -2236,24 +2880,28 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MCOBT-4.4 OB</t>
+          <t>MCO-7.2</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>35.86057</t>
+          <t>35.8606409</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>-106.27102</t>
+          <t>-106.2684259</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr"/>
-      <c r="E6" s="1" t="inlineStr"/>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>72 - 92.5</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -2270,17 +2918,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>R-23i OB</t>
+          <t>MCOBT-4.4 OB</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>35.82385</t>
+          <t>35.86057</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>-106.22476</t>
+          <t>-106.27102</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr"/>
@@ -2292,36 +2940,40 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>10/20/05</t>
+          <t>No Data</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>R-41 S1</t>
+          <t>MCOI-1</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>35.83099</t>
+          <t>35.8645331</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>-106.23381</t>
+          <t>-106.2917572</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr"/>
-      <c r="E8" s="1" t="inlineStr"/>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>825.6</t>
+        </is>
+      </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>928 - 937.7</t>
+          <t>815 - 825.48</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -2336,34 +2988,60 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Los Alamos and Pajarito Canyons</t>
-        </is>
-      </c>
-      <c r="H9" s="5" t="n"/>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>R-23i OB</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>35.82385</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>-106.22476</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr"/>
+      <c r="E9" s="1" t="inlineStr"/>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>10/20/05</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>LAOI-3.2 OB</t>
+          <t>R-41 S1</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>35.87308</t>
+          <t>35.83099</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>-106.25937</t>
+          <t>-106.23381</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr"/>
       <c r="E10" s="1" t="inlineStr"/>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>928 - 937.7</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -2378,60 +3056,38 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>LAOI-3.2a OB</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>35.87318</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>-106.25944</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr"/>
-      <c r="E11" s="1" t="inlineStr"/>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>7/30/05</t>
-        </is>
-      </c>
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Los Alamos and Pajarito Canyons</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>R-5 S1</t>
+          <t>BCO-1</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>35.87307</t>
+          <t>35.8891488</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>-106.22877</t>
+          <t>-106.2492164</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr"/>
-      <c r="E12" s="1" t="inlineStr"/>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>326.4 - 331.5</t>
+          <t>57 - 67</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -2448,17 +3104,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>R-7 OB</t>
+          <t>LAOI-3.2 OB</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>35.87469</t>
+          <t>35.87308</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>-106.27954</t>
+          <t>-106.25937</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr"/>
@@ -2470,78 +3126,74 @@
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>1/6/01</t>
+          <t>No Data</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>R-7 S2</t>
+          <t>LAOI-3.2a OB</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>35.87469</t>
+          <t>35.87318</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>-106.27954</t>
+          <t>-106.25944</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr"/>
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>730.4 - 746.4</t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>7/30/05</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>03-MW-1</t>
+          <t>R-4 PZ-E</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>35.87374</t>
+          <t>35.8825612</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>-106.33013</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>9/22/94</t>
-        </is>
-      </c>
+          <t>-106.2537778</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr"/>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>28.8</t>
+          <t>231</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>23 - 28</t>
+          <t>221 - 231</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
@@ -2558,66 +3210,248 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>R-19 OB</t>
+          <t>R-4 PZ-W</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>35.83787</t>
+          <t>35.8825612</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>-106.28542</t>
+          <t>-106.2537784</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr"/>
-      <c r="E16" s="1" t="inlineStr"/>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>115 - 125</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>No Data</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>R-19 S1</t>
+          <t>R-5 S1</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>35.83787</t>
+          <t>35.87307</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>-106.28542</t>
+          <t>-106.22877</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr"/>
       <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr">
         <is>
+          <t>326.4 - 331.5</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>R-7 OB</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>35.87469</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>-106.27954</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr"/>
+      <c r="E18" s="1" t="inlineStr"/>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>1/6/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>R-7 S2</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>35.87469</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>-106.27954</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr"/>
+      <c r="E19" s="1" t="inlineStr"/>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>730.4 - 746.4</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>03-MW-1</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>35.87374</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>-106.33013</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>9/22/94</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>28.8</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>23 - 28</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>R-19 OB</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>35.83787</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>-106.28542</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr"/>
+      <c r="E21" s="1" t="inlineStr"/>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>R-19 S1</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>35.83787</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>-106.28542</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr"/>
+      <c r="E22" s="1" t="inlineStr"/>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
           <t>827.2 - 843.6</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="H17" s="1" t="inlineStr">
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
         <is>
           <t>No Data</t>
         </is>
@@ -2628,7 +3462,7 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Tables/Intermediate- Excluded.xlsx
+++ b/Tables/Intermediate- Excluded.xlsx
@@ -747,7 +747,7 @@
       <c r="O3" s="1" t="inlineStr"/>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr"/>
@@ -863,7 +863,7 @@
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr"/>
@@ -1003,7 +1003,7 @@
       <c r="O5" s="1" t="inlineStr"/>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr"/>
@@ -1076,7 +1076,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>R-23i OB</t>
+          <t>R-41 S1</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -1086,28 +1086,40 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>35.82385</t>
+          <t>35.83099</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>-106.22476</t>
+          <t>-106.23381</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>6527.880</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr"/>
+          <t>6660.530</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Tsf</t>
+        </is>
+      </c>
       <c r="G6" s="1" t="inlineStr"/>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="inlineStr"/>
-      <c r="J6" s="1" t="inlineStr"/>
-      <c r="K6" s="1" t="inlineStr"/>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>937.700</t>
+        </is>
+      </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
+          <t>Brass cap location, Brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr"/>
@@ -1123,7 +1135,7 @@
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr"/>
@@ -1133,11 +1145,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T6" s="1" t="inlineStr">
-        <is>
-          <t>Aquifer updated from MW</t>
-        </is>
-      </c>
+      <c r="T6" s="1" t="inlineStr"/>
       <c r="U6" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -1145,22 +1153,22 @@
       </c>
       <c r="V6" s="1" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W6" s="1" t="inlineStr">
         <is>
-          <t>2005-10-20</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
         <is>
-          <t>2005-10-31</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Z6" s="1" t="inlineStr">
@@ -1185,7 +1193,7 @@
       </c>
       <c r="AD6" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE6" s="1" t="inlineStr"/>
@@ -1200,7 +1208,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>R-41 S1</t>
+          <t>BCO-1</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -1210,69 +1218,65 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>35.83099</t>
+          <t>35.8891488</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>-106.23381</t>
+          <t>-106.2492164</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>6660.530</t>
+          <t>6641.97</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>Tsf</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr"/>
-      <c r="H7" s="1" t="inlineStr"/>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
       <c r="I7" s="1" t="inlineStr"/>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>937.700</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass cap location, Brass cap location</t>
-        </is>
-      </c>
-      <c r="M7" s="1" t="inlineStr"/>
-      <c r="N7" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="inlineStr">
-        <is>
-          <t>TA-54</t>
-        </is>
-      </c>
+          <t>Intermediate monitoring well, Intermediate monitoring well</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.intellusnm.com/documents/document-library.cfc?method=retrieveLanlFile&amp;nodeId=12437</t>
+        </is>
+      </c>
+      <c r="N7" s="1" t="inlineStr"/>
+      <c r="O7" s="1" t="inlineStr"/>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Los Alamos</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr"/>
       <c r="R7" s="1" t="inlineStr"/>
-      <c r="S7" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
+      <c r="S7" s="1" t="inlineStr"/>
       <c r="T7" s="1" t="inlineStr"/>
       <c r="U7" s="1" t="inlineStr">
         <is>
-          <t>Well Info</t>
+          <t>Monitoring Wells</t>
         </is>
       </c>
       <c r="V7" s="1" t="inlineStr">
@@ -1332,7 +1336,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>BCO-1</t>
+          <t>LAOI-3.2 OB</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1342,53 +1346,41 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>35.8891488</t>
+          <t>35.87308</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>-106.2492164</t>
+          <t>-106.25937</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>6641.97</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>Tpf</t>
-        </is>
-      </c>
+          <t>6622.600</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr"/>
       <c r="G8" s="1" t="inlineStr"/>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
+      <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="inlineStr"/>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
+      <c r="J8" s="1" t="inlineStr"/>
+      <c r="K8" s="1" t="inlineStr"/>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>Intermediate monitoring well, Intermediate monitoring well</t>
-        </is>
-      </c>
-      <c r="M8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.intellusnm.com/documents/document-library.cfc?method=retrieveLanlFile&amp;nodeId=12437</t>
-        </is>
-      </c>
-      <c r="N8" s="1" t="inlineStr"/>
-      <c r="O8" s="1" t="inlineStr"/>
+          <t>added for P Longmire.  Location data taken from Brass Cap survey data., added for P Longmire.  Location data taken from Brass Cap survey data., added for P Longmire.  Location data taken from Brass Cap survey data.</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="inlineStr"/>
+      <c r="N8" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O8" s="1" t="inlineStr">
+        <is>
+          <t>TA-21</t>
+        </is>
+      </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
           <t>Los Alamos</t>
@@ -1396,11 +1388,19 @@
       </c>
       <c r="Q8" s="1" t="inlineStr"/>
       <c r="R8" s="1" t="inlineStr"/>
-      <c r="S8" s="1" t="inlineStr"/>
-      <c r="T8" s="1" t="inlineStr"/>
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T8" s="1" t="inlineStr">
+        <is>
+          <t>Aquifer updated from MW</t>
+        </is>
+      </c>
       <c r="U8" s="1" t="inlineStr">
         <is>
-          <t>Monitoring Wells</t>
+          <t>Well Info</t>
         </is>
       </c>
       <c r="V8" s="1" t="inlineStr">
@@ -1460,7 +1460,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>LAOI-3.2 OB</t>
+          <t>LAOI-3.2a OB</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -1470,17 +1470,17 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>35.87308</t>
+          <t>35.87318</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>-106.25937</t>
+          <t>-106.25944</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>6622.600</t>
+          <t>6624.430</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr"/>
@@ -1491,7 +1491,7 @@
       <c r="K9" s="1" t="inlineStr"/>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>added for P Longmire.  Location data taken from Brass Cap survey data., added for P Longmire.  Location data taken from Brass Cap survey data., added for P Longmire.  Location data taken from Brass Cap survey data.</t>
+          <t>Brass Cap Location, Brass Cap Location, Brass Cap Location</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr"/>
@@ -1529,22 +1529,22 @@
       </c>
       <c r="V9" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W9" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2005-07-30</t>
         </is>
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2005-07-30</t>
         </is>
       </c>
       <c r="Z9" s="1" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="AD9" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE9" s="1" t="inlineStr"/>
@@ -1584,7 +1584,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>LAOI-3.2a OB</t>
+          <t>R-4 PZ-E</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -1594,41 +1594,53 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>35.87318</t>
+          <t>35.8825612</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>-106.25944</t>
+          <t>-106.2537778</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>6624.430</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr"/>
+          <t>6577.34</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>Tpf</t>
+        </is>
+      </c>
       <c r="G10" s="1" t="inlineStr"/>
-      <c r="H10" s="1" t="inlineStr"/>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
       <c r="I10" s="1" t="inlineStr"/>
-      <c r="J10" s="1" t="inlineStr"/>
-      <c r="K10" s="1" t="inlineStr"/>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap Location, Brass Cap Location, Brass Cap Location</t>
-        </is>
-      </c>
-      <c r="M10" s="1" t="inlineStr"/>
-      <c r="N10" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
-      <c r="O10" s="1" t="inlineStr">
-        <is>
-          <t>TA-21</t>
-        </is>
-      </c>
+          <t>R-4 Piezometer East, R-4 Piezometer East</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.intellusnm.com/documents/document-library.cfc?method=retrieveLanlFile&amp;nodeId=12295</t>
+        </is>
+      </c>
+      <c r="N10" s="1" t="inlineStr"/>
+      <c r="O10" s="1" t="inlineStr"/>
       <c r="P10" s="1" t="inlineStr">
         <is>
           <t>Los Alamos</t>
@@ -1636,39 +1648,31 @@
       </c>
       <c r="Q10" s="1" t="inlineStr"/>
       <c r="R10" s="1" t="inlineStr"/>
-      <c r="S10" s="1" t="inlineStr">
-        <is>
-          <t>[84]</t>
-        </is>
-      </c>
-      <c r="T10" s="1" t="inlineStr">
-        <is>
-          <t>Aquifer updated from MW</t>
-        </is>
-      </c>
+      <c r="S10" s="1" t="inlineStr"/>
+      <c r="T10" s="1" t="inlineStr"/>
       <c r="U10" s="1" t="inlineStr">
         <is>
-          <t>Well Info</t>
+          <t>Monitoring Wells</t>
         </is>
       </c>
       <c r="V10" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W10" s="1" t="inlineStr">
         <is>
-          <t>2005-07-30</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X10" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Y10" s="1" t="inlineStr">
         <is>
-          <t>2005-07-30</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Z10" s="1" t="inlineStr">
@@ -1693,7 +1697,7 @@
       </c>
       <c r="AD10" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE10" s="1" t="inlineStr"/>
@@ -1708,7 +1712,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>R-4 PZ-E</t>
+          <t>R-4 PZ-W</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -1723,12 +1727,12 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>-106.2537778</t>
+          <t>-106.2537784</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>6577.34</t>
+          <t>6577.35</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
@@ -1739,30 +1743,26 @@
       <c r="G11" s="1" t="inlineStr"/>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>125</t>
         </is>
       </c>
       <c r="I11" s="1" t="inlineStr"/>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>125</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>R-4 Piezometer East, R-4 Piezometer East</t>
-        </is>
-      </c>
-      <c r="M11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.intellusnm.com/documents/document-library.cfc?method=retrieveLanlFile&amp;nodeId=12295</t>
-        </is>
-      </c>
+          <t>R-4 Piezometer West, R-4 Piezometer West</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="inlineStr"/>
       <c r="N11" s="1" t="inlineStr"/>
       <c r="O11" s="1" t="inlineStr"/>
       <c r="P11" s="1" t="inlineStr">
@@ -1836,7 +1836,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>R-4 PZ-W</t>
+          <t>R-5 S1</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -1846,49 +1846,53 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>35.8825612</t>
+          <t>35.87307</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>-106.2537784</t>
+          <t>-106.22877</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>6577.35</t>
+          <t>6472.600</t>
         </is>
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tp</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr"/>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
+      <c r="H12" s="1" t="inlineStr"/>
       <c r="I12" s="1" t="inlineStr"/>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>326.4</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>331.500</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>R-4 Piezometer West, R-4 Piezometer West</t>
+          <t>Location info taken from Brass cap monument survey data from R-5 WCR., Location info taken from Brass cap monument survey data from R-5 WCR., Location info taken from Brass cap monument survey data from R-5 WCR.</t>
         </is>
       </c>
       <c r="M12" s="1" t="inlineStr"/>
-      <c r="N12" s="1" t="inlineStr"/>
-      <c r="O12" s="1" t="inlineStr"/>
+      <c r="N12" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O12" s="1" t="inlineStr">
+        <is>
+          <t>TA-21</t>
+        </is>
+      </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
           <t>Los Alamos</t>
@@ -1896,11 +1900,15 @@
       </c>
       <c r="Q12" s="1" t="inlineStr"/>
       <c r="R12" s="1" t="inlineStr"/>
-      <c r="S12" s="1" t="inlineStr"/>
+      <c r="S12" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
       <c r="T12" s="1" t="inlineStr"/>
       <c r="U12" s="1" t="inlineStr">
         <is>
-          <t>Monitoring Wells</t>
+          <t>Well Info</t>
         </is>
       </c>
       <c r="V12" s="1" t="inlineStr">
@@ -1960,7 +1968,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>R-5 S1</t>
+          <t>R-7 OB</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -1970,40 +1978,28 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>35.87307</t>
+          <t>35.87469</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>-106.22877</t>
+          <t>-106.27954</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>6472.600</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>Tp</t>
-        </is>
-      </c>
+          <t>6779.200</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr"/>
       <c r="G13" s="1" t="inlineStr"/>
       <c r="H13" s="1" t="inlineStr"/>
       <c r="I13" s="1" t="inlineStr"/>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>326.4</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
-        <is>
-          <t>331.500</t>
-        </is>
-      </c>
+      <c r="J13" s="1" t="inlineStr"/>
+      <c r="K13" s="1" t="inlineStr"/>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap monument survey data from R-5 WCR., Location info taken from Brass cap monument survey data from R-5 WCR., Location info taken from Brass cap monument survey data from R-5 WCR.</t>
+          <t>Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR.</t>
         </is>
       </c>
       <c r="M13" s="1" t="inlineStr"/>
@@ -2029,7 +2025,11 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T13" s="1" t="inlineStr"/>
+      <c r="T13" s="1" t="inlineStr">
+        <is>
+          <t>Aquifer updated from MW</t>
+        </is>
+      </c>
       <c r="U13" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -2037,22 +2037,22 @@
       </c>
       <c r="V13" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="W13" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2001-01-06</t>
         </is>
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2001-01-10</t>
         </is>
       </c>
       <c r="Z13" s="1" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="AD13" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE13" s="1" t="inlineStr"/>
@@ -2092,7 +2092,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>R-7 OB</t>
+          <t>R-7 S2</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -2115,12 +2115,24 @@
           <t>6779.200</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr"/>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>Tp</t>
+        </is>
+      </c>
       <c r="G14" s="1" t="inlineStr"/>
       <c r="H14" s="1" t="inlineStr"/>
       <c r="I14" s="1" t="inlineStr"/>
-      <c r="J14" s="1" t="inlineStr"/>
-      <c r="K14" s="1" t="inlineStr"/>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>730.4</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>746.400</t>
+        </is>
+      </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
           <t>Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR.</t>
@@ -2149,11 +2161,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T14" s="1" t="inlineStr">
-        <is>
-          <t>Aquifer updated from MW</t>
-        </is>
-      </c>
+      <c r="T14" s="1" t="inlineStr"/>
       <c r="U14" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -2161,22 +2169,22 @@
       </c>
       <c r="V14" s="1" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W14" s="1" t="inlineStr">
         <is>
-          <t>2001-01-06</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
         <is>
-          <t>2001-01-10</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Z14" s="1" t="inlineStr">
@@ -2201,7 +2209,7 @@
       </c>
       <c r="AD14" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE14" s="1" t="inlineStr"/>
@@ -2216,7 +2224,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>R-7 S2</t>
+          <t>03-MW-1</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -2226,66 +2234,82 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>35.87469</t>
+          <t>35.87374</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>-106.27954</t>
+          <t>-106.33013</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>6779.200</t>
+          <t>7457.7</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>Tp</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr"/>
-      <c r="H15" s="1" t="inlineStr"/>
-      <c r="I15" s="1" t="inlineStr"/>
+          <t>Qbt3</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>1994-09-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="I15" s="1" t="inlineStr">
+        <is>
+          <t>2 in</t>
+        </is>
+      </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>730.4</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>746.400</t>
+          <t>28.000</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR., Location info taken from Brass cap monument survey data from R-7 WCR.</t>
+          <t>ER ID 03-02664 plugged and abandoned 6/7/05, ER ID 03-02664 Well plugged and abandoned 6/7/05, ER ID 03-02664 Well plugged and abandoned 6/7/05</t>
         </is>
       </c>
       <c r="M15" s="1" t="inlineStr"/>
-      <c r="N15" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N15" s="1" t="inlineStr"/>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>TA-21</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>Los Alamos</t>
-        </is>
-      </c>
-      <c r="Q15" s="1" t="inlineStr"/>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q15" s="1" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
       <c r="R15" s="1" t="inlineStr"/>
       <c r="S15" s="1" t="inlineStr">
         <is>
           <t>[84]</t>
         </is>
       </c>
-      <c r="T15" s="1" t="inlineStr"/>
+      <c r="T15" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW, Well Diameter [in] updated from MW</t>
+        </is>
+      </c>
       <c r="U15" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -2348,7 +2372,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>03-MW-1</t>
+          <t>R-19 OB</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -2358,56 +2382,36 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>35.87374</t>
+          <t>35.83787</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>-106.33013</t>
+          <t>-106.28542</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>7457.7</t>
-        </is>
-      </c>
-      <c r="F16" s="1" t="inlineStr">
-        <is>
-          <t>Qbt3</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
-        <is>
-          <t>1994-09-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>28.80</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
-        <is>
-          <t>2 in</t>
-        </is>
-      </c>
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="inlineStr">
-        <is>
-          <t>28.000</t>
-        </is>
-      </c>
+          <t>7066.300</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr"/>
+      <c r="G16" s="1" t="inlineStr"/>
+      <c r="H16" s="1" t="inlineStr"/>
+      <c r="I16" s="1" t="inlineStr"/>
+      <c r="J16" s="1" t="inlineStr"/>
+      <c r="K16" s="1" t="inlineStr"/>
       <c r="L16" s="1" t="inlineStr">
         <is>
-          <t>ER ID 03-02664 plugged and abandoned 6/7/05, ER ID 03-02664 Well plugged and abandoned 6/7/05, ER ID 03-02664 Well plugged and abandoned 6/7/05</t>
+          <t>Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
         </is>
       </c>
       <c r="M16" s="1" t="inlineStr"/>
-      <c r="N16" s="1" t="inlineStr"/>
+      <c r="N16" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
           <t>General</t>
@@ -2418,11 +2422,7 @@
           <t>Pajarito</t>
         </is>
       </c>
-      <c r="Q16" s="1" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
+      <c r="Q16" s="1" t="inlineStr"/>
       <c r="R16" s="1" t="inlineStr"/>
       <c r="S16" s="1" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="T16" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW, Well Diameter [in] updated from MW</t>
+          <t>Aquifer updated from MW</t>
         </is>
       </c>
       <c r="U16" s="1" t="inlineStr">
@@ -2441,22 +2441,22 @@
       </c>
       <c r="V16" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W16" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z16" s="1" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="AD16" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE16" s="1" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>R-19 OB</t>
+          <t>R-19 S1</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -2519,12 +2519,24 @@
           <t>7066.300</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr"/>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>Qbog</t>
+        </is>
+      </c>
       <c r="G17" s="1" t="inlineStr"/>
       <c r="H17" s="1" t="inlineStr"/>
       <c r="I17" s="1" t="inlineStr"/>
-      <c r="J17" s="1" t="inlineStr"/>
-      <c r="K17" s="1" t="inlineStr"/>
+      <c r="J17" s="1" t="inlineStr">
+        <is>
+          <t>827.2</t>
+        </is>
+      </c>
+      <c r="K17" s="1" t="inlineStr">
+        <is>
+          <t>843.600</t>
+        </is>
+      </c>
       <c r="L17" s="1" t="inlineStr">
         <is>
           <t>Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
@@ -2553,11 +2565,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T17" s="1" t="inlineStr">
-        <is>
-          <t>Aquifer updated from MW</t>
-        </is>
-      </c>
+      <c r="T17" s="1" t="inlineStr"/>
       <c r="U17" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -2565,22 +2573,22 @@
       </c>
       <c r="V17" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W17" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
         <is>
-          <t>No Detect Data</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="Z17" s="1" t="inlineStr">
@@ -2605,7 +2613,7 @@
       </c>
       <c r="AD17" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE17" s="1" t="inlineStr"/>
@@ -2620,7 +2628,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>R-19 S1</t>
+          <t>R-23i OB</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -2630,40 +2638,28 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>35.83787</t>
+          <t>35.82385</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>-106.28542</t>
+          <t>-106.22476</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>7066.300</t>
-        </is>
-      </c>
-      <c r="F18" s="1" t="inlineStr">
-        <is>
-          <t>Qbog</t>
-        </is>
-      </c>
+          <t>6527.880</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr"/>
       <c r="G18" s="1" t="inlineStr"/>
       <c r="H18" s="1" t="inlineStr"/>
       <c r="I18" s="1" t="inlineStr"/>
-      <c r="J18" s="1" t="inlineStr">
-        <is>
-          <t>827.2</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
-        <is>
-          <t>843.600</t>
-        </is>
-      </c>
+      <c r="J18" s="1" t="inlineStr"/>
+      <c r="K18" s="1" t="inlineStr"/>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
+          <t>Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
         </is>
       </c>
       <c r="M18" s="1" t="inlineStr"/>
@@ -2674,7 +2670,7 @@
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
@@ -2689,7 +2685,11 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T18" s="1" t="inlineStr"/>
+      <c r="T18" s="1" t="inlineStr">
+        <is>
+          <t>Aquifer updated from MW</t>
+        </is>
+      </c>
       <c r="U18" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -2697,22 +2697,22 @@
       </c>
       <c r="V18" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="W18" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2005-10-20</t>
         </is>
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2005-10-31</t>
         </is>
       </c>
       <c r="Z18" s="1" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="AD18" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE18" s="1" t="inlineStr"/>
@@ -2760,7 +2760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2770,7 +2770,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="12.25"/>
     <col customWidth="1" max="2" min="2" width="10.14"/>
-    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="3" min="3" width="13"/>
     <col customWidth="1" max="4" min="4" width="9.15"/>
     <col customWidth="1" max="5" min="5" width="7"/>
     <col customWidth="1" max="6" min="6" width="16.25"/>
@@ -2872,7 +2872,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Mortendad Canyon</t>
+          <t>Mortandad Canyon</t>
         </is>
       </c>
       <c r="H5" s="5" t="n"/>
@@ -2990,104 +2990,104 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>R-23i OB</t>
+          <t>R-41 S1</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>35.82385</t>
+          <t>35.83099</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>-106.22476</t>
+          <t>-106.23381</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr"/>
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>928 - 937.7</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>10/20/05</t>
+          <t>No Data</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>R-41 S1</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>35.83099</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>-106.23381</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr"/>
-      <c r="E10" s="1" t="inlineStr"/>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>928 - 937.7</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Los Alamos Canyon</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>Los Alamos and Pajarito Canyons</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="n"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>BCO-1</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>35.8891488</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>-106.2492164</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr"/>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>57 - 67</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>BCO-1</t>
+          <t>LAOI-3.2 OB</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>35.8891488</t>
+          <t>35.87308</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>-106.2492164</t>
+          <t>-106.25937</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr"/>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
+      <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>57 - 67</t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -3104,17 +3104,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LAOI-3.2 OB</t>
+          <t>LAOI-3.2a OB</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>35.87308</t>
+          <t>35.87318</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>-106.25937</t>
+          <t>-106.25944</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr"/>
@@ -3126,53 +3126,57 @@
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>7/30/05</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>LAOI-3.2a OB</t>
+          <t>R-4 PZ-E</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>35.87318</t>
+          <t>35.8825612</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>-106.25944</t>
+          <t>-106.2537778</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr"/>
-      <c r="E14" s="1" t="inlineStr"/>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>221 - 231</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>7/30/05</t>
+          <t>No Data</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>R-4 PZ-E</t>
+          <t>R-4 PZ-W</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -3182,18 +3186,18 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>-106.2537778</t>
+          <t>-106.2537784</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr"/>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>125</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>221 - 231</t>
+          <t>115 - 125</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
@@ -3210,28 +3214,24 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>R-4 PZ-W</t>
+          <t>R-5 S1</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>35.8825612</t>
+          <t>35.87307</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>-106.2537784</t>
+          <t>-106.22877</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr"/>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
+      <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>115 - 125</t>
+          <t>326.4 - 331.5</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
@@ -3248,41 +3248,41 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>R-5 S1</t>
+          <t>R-7 OB</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>35.87307</t>
+          <t>35.87469</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>-106.22877</t>
+          <t>-106.27954</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr"/>
       <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>326.4 - 331.5</t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1/6/01</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>R-7 OB</t>
+          <t>R-7 S2</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -3299,53 +3299,27 @@
       <c r="E18" s="1" t="inlineStr"/>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>730.4 - 746.4</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>1/6/01</t>
+          <t>No Data</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>R-7 S2</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>35.87469</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>-106.27954</t>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr"/>
-      <c r="E19" s="1" t="inlineStr"/>
-      <c r="F19" s="1" t="inlineStr">
-        <is>
-          <t>730.4 - 746.4</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Pajarito Canyon</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3457,12 +3431,47 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>R-23i OB</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>35.82385</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>-106.22476</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr"/>
+      <c r="E23" s="1" t="inlineStr"/>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>10/20/05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A19:H19"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
